--- a/docs/assessment score by guessing (calculation).xlsx
+++ b/docs/assessment score by guessing (calculation).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py\gsa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C2A7B2B-1D00-4CA2-AD63-24687BE5755B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C347D7-F9E5-4D8C-8357-CA5D5929C048}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="1980" windowWidth="30360" windowHeight="14430" xr2:uid="{4719BC98-C1CB-4012-B062-9758FF913DCE}"/>
+    <workbookView xWindow="3825" yWindow="1395" windowWidth="25095" windowHeight="20055" xr2:uid="{4719BC98-C1CB-4012-B062-9758FF913DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -437,7 +437,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C1" sqref="C1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +481,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <f>C2*0.5</f>
@@ -497,7 +497,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(B3:E3)</f>
-        <v>8.5599999999999987</v>
+        <v>8.9600000000000009</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assessment score by guessing (calculation).xlsx
+++ b/docs/assessment score by guessing (calculation).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py\gsa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C347D7-F9E5-4D8C-8357-CA5D5929C048}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090D62A7-7545-4BF6-804A-809ABDF5F05E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="1395" windowWidth="25095" windowHeight="20055" xr2:uid="{4719BC98-C1CB-4012-B062-9758FF913DCE}"/>
+    <workbookView xWindow="9720" yWindow="10875" windowWidth="25095" windowHeight="15465" xr2:uid="{4719BC98-C1CB-4012-B062-9758FF913DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>First q</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>N questions</t>
+  </si>
+  <si>
+    <t>Total after excluding items for poor interanl consistency</t>
   </si>
 </sst>
 </file>
@@ -115,11 +118,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E66CD5-7550-4401-9FA8-BB9FDE601FD0}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,6 +506,44 @@
         <v>8.9600000000000009</v>
       </c>
     </row>
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <f>C4*0.5</f>
+        <v>2.5</v>
+      </c>
+      <c r="D5" s="1">
+        <f>D4*0.33</f>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <f>E4*0.25</f>
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="3">
+        <f>SUM(B5:E5)</f>
+        <v>5.65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
